--- a/GenerateZaFoms/Template/ZaGet.xlsx
+++ b/GenerateZaFoms/Template/ZaGet.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +492,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -600,18 +607,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -624,7 +620,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1013,116 +1023,116 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" s="6" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
     </row>
     <row r="6" spans="1:24" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
     </row>
     <row r="8" spans="1:24" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1341,25 +1351,25 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="7" t="s">
@@ -1385,31 +1395,31 @@
       <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
@@ -1494,26 +1504,26 @@
       <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -1579,7 +1589,7 @@
       <c r="B26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="35"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
@@ -1608,15 +1618,15 @@
       <c r="K27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
@@ -1627,29 +1637,29 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
@@ -1660,57 +1670,57 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
     </row>
     <row r="32" spans="1:25" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
@@ -1920,31 +1930,31 @@
       <c r="A41" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
@@ -2028,26 +2038,26 @@
       <c r="B45" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
@@ -2109,32 +2119,32 @@
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="25"/>
@@ -2223,16 +2233,16 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
       <c r="M52" s="6"/>
       <c r="N52" s="4" t="s">
         <v>64</v>
@@ -2297,7 +2307,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="E52:L52"/>
+    <mergeCell ref="B29:X29"/>
+    <mergeCell ref="B31:X31"/>
+    <mergeCell ref="A32:X32"/>
+    <mergeCell ref="B41:X41"/>
+    <mergeCell ref="E45:X45"/>
+    <mergeCell ref="A48:X48"/>
+    <mergeCell ref="P27:X27"/>
     <mergeCell ref="E23:X23"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A6:X6"/>
@@ -2305,13 +2323,6 @@
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="B19:X19"/>
     <mergeCell ref="F17:X17"/>
-    <mergeCell ref="E52:L52"/>
-    <mergeCell ref="B29:X29"/>
-    <mergeCell ref="B31:X31"/>
-    <mergeCell ref="A32:X32"/>
-    <mergeCell ref="B41:X41"/>
-    <mergeCell ref="E45:X45"/>
-    <mergeCell ref="A48:X48"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
